--- a/Methodology_DataScience.xlsx
+++ b/Methodology_DataScience.xlsx
@@ -269,9 +269,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -300,6 +297,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2244,129 +2244,129 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="99.42578125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="99.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2.5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
@@ -2375,13 +2375,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2390,13 +2390,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
@@ -2405,13 +2405,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
@@ -2420,52 +2420,52 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
@@ -2474,13 +2474,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
@@ -2489,56 +2489,56 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>14</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>17</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>48</v>
       </c>
     </row>

--- a/Methodology_DataScience.xlsx
+++ b/Methodology_DataScience.xlsx
@@ -2244,7 +2244,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Methodology_DataScience.xlsx
+++ b/Methodology_DataScience.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Data Science Methodology steps</t>
   </si>
@@ -74,18 +74,12 @@
     <t>Modeling</t>
   </si>
   <si>
-    <t>Performance analysis</t>
-  </si>
-  <si>
     <t>Model optimizing</t>
   </si>
   <si>
     <t>Deploy model as a MVP</t>
   </si>
   <si>
-    <t>تعریف مشکل</t>
-  </si>
-  <si>
     <t>جمع آوری داده ها</t>
   </si>
   <si>
@@ -152,31 +146,41 @@
     <t>Casting types</t>
   </si>
   <si>
-    <t>یعنی به نسبت output ما، sampleهامون یک اندازه باشند
+    <t>Handle Missing value</t>
+  </si>
+  <si>
+    <t>Merge, Concat, All in a table</t>
+  </si>
+  <si>
+    <t>Feature Selection, feature reduction</t>
+  </si>
+  <si>
+    <t>استقرار مدل به عنوان MVP (Minimum Viable Product)</t>
+  </si>
+  <si>
+    <t>It refers to the process of releasing a model into production in its most basic form to gather feedback and validate its utility or feasibility.
+In the context of machine learning or AI development, an MVP approach involves deploying a model with minimal features or functionalities to test its core functionality and value proposition in real-world scenarios.</t>
+  </si>
+  <si>
+    <t>تعیین وضعیت داده های NaN/Null</t>
+  </si>
+  <si>
+    <t>تعریف مسئله</t>
+  </si>
+  <si>
+    <t>تشخیص نقاط پرت و رفع آن ها</t>
+  </si>
+  <si>
+    <t>یعنی به نسبت output(target) ما، sampleهامون یک اندازه باشند
 اگر بالانس نبودند باید آنالیز هزینه ها و ریسک ها رو کنی، ببینی حذف رکوردها ضرر داره یا نه؟با حذف رکوردها دقت target چه طور تغییر میکنه (اگه پایین میاد چقد میاد میتونی تحمل کنی؟)
 تکلیف رو Performance Analysis مشخص میکنه</t>
   </si>
   <si>
-    <t>Handle Missing value</t>
-  </si>
-  <si>
-    <t>تشخیص نقاط پرت و درمان آن ها</t>
-  </si>
-  <si>
-    <t>Merge, Concat, All in a table</t>
-  </si>
-  <si>
-    <t>Feature Selection, feature reduction</t>
-  </si>
-  <si>
-    <t>استقرار مدل به عنوان MVP (Minimum Viable Product)</t>
-  </si>
-  <si>
-    <t>It refers to the process of releasing a model into production in its most basic form to gather feedback and validate its utility or feasibility.
-In the context of machine learning or AI development, an MVP approach involves deploying a model with minimal features or functionalities to test its core functionality and value proposition in real-world scenarios.</t>
-  </si>
-  <si>
-    <t>تعیین وضعیت داده های NaN/Null</t>
+    <t>Performance analysis (Important)</t>
+  </si>
+  <si>
+    <t>Classifier models (Confusion metrics, classification report)
+Regressor models (R2, , , , )</t>
   </si>
 </sst>
 </file>
@@ -192,12 +196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
@@ -205,7 +203,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -264,42 +268,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1654,8 +1664,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2244,302 +2254,304 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="13" customWidth="1"/>
     <col min="2" max="2" width="54.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="14" customWidth="1"/>
     <col min="4" max="4" width="50.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="99.42578125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>2.5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="1"/>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>46</v>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="1"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>35</v>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>40</v>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="8">
         <v>14</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="19" spans="1:5" s="12" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>15</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="8"/>
+      <c r="B19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="8">
         <v>16</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="8">
         <v>17</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>48</v>
+      <c r="B21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2897,8 +2909,8 @@
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>57150</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/Methodology_DataScience.xlsx
+++ b/Methodology_DataScience.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2_DataScience\DataScience_mynb\DataScience_Py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2_DataScience\DataScience_mynb\DataScienceWithPy_RP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -270,9 +270,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -310,6 +307,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2253,304 +2253,304 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="99.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="99.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2.5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>13</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" s="12" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>16</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>17</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>44</v>
       </c>
     </row>
